--- a/Setpoint_nodes.xlsx
+++ b/Setpoint_nodes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Thesis\energy-continuous\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Thesis\market-clearing-mechanisms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="N15_calculations" sheetId="7" r:id="rId1"/>
@@ -17,8 +17,7 @@
     <sheet name="Nodes15" sheetId="2" r:id="rId3"/>
     <sheet name="Nodes33" sheetId="3" r:id="rId4"/>
     <sheet name="Nodes33lines+0.1" sheetId="8" r:id="rId5"/>
-    <sheet name="Nodes33_gen" sheetId="5" r:id="rId6"/>
-    <sheet name="Nodes_trial" sheetId="1" r:id="rId7"/>
+    <sheet name="Nodes_trial" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="69">
   <si>
     <t>n1</t>
   </si>
@@ -6678,7 +6677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -9291,2628 +9290,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>1.7414910940262842</v>
-      </c>
-      <c r="C2">
-        <v>-6.9104140539390624E-2</v>
-      </c>
-      <c r="D2">
-        <v>-6.2193726485451566E-2</v>
-      </c>
-      <c r="E2">
-        <v>-8.292496864726874E-2</v>
-      </c>
-      <c r="F2">
-        <v>-4.146248432363437E-2</v>
-      </c>
-      <c r="G2">
-        <v>-4.146248432363437E-2</v>
-      </c>
-      <c r="H2">
-        <v>-0.13820828107878125</v>
-      </c>
-      <c r="I2">
-        <v>-0.13820828107878125</v>
-      </c>
-      <c r="J2">
-        <v>-4.146248432363437E-2</v>
-      </c>
-      <c r="K2">
-        <v>-4.146248432363437E-2</v>
-      </c>
-      <c r="L2">
-        <v>-3.1096863242725783E-2</v>
-      </c>
-      <c r="M2">
-        <v>-4.146248432363437E-2</v>
-      </c>
-      <c r="N2">
-        <v>-4.146248432363437E-2</v>
-      </c>
-      <c r="O2">
-        <v>-6.5715675518702235E-2</v>
-      </c>
-      <c r="P2">
-        <v>-1.7075031352731071E-2</v>
-      </c>
-      <c r="Q2">
-        <v>-4.146248432363437E-2</v>
-      </c>
-      <c r="R2">
-        <v>-4.146248432363437E-2</v>
-      </c>
-      <c r="S2">
-        <v>0.1</v>
-      </c>
-      <c r="T2">
-        <v>-6.2193726485451566E-2</v>
-      </c>
-      <c r="U2">
-        <v>-6.2193726485451566E-2</v>
-      </c>
-      <c r="V2">
-        <v>-6.2193726485451566E-2</v>
-      </c>
-      <c r="W2">
-        <v>-6.2193726485451566E-2</v>
-      </c>
-      <c r="X2">
-        <v>-6.2193726485451566E-2</v>
-      </c>
-      <c r="Y2">
-        <v>-0.15202910918665938</v>
-      </c>
-      <c r="Z2">
-        <v>-0.15202910918665938</v>
-      </c>
-      <c r="AA2">
-        <v>-4.146248432363437E-2</v>
-      </c>
-      <c r="AB2">
-        <v>-4.146248432363437E-2</v>
-      </c>
-      <c r="AC2">
-        <v>-4.146248432363437E-2</v>
-      </c>
-      <c r="AD2">
-        <v>-8.292496864726874E-2</v>
-      </c>
-      <c r="AE2">
-        <v>-0.13820828107878125</v>
-      </c>
-      <c r="AF2">
-        <v>-0.10365621080908594</v>
-      </c>
-      <c r="AG2">
-        <v>0.20040200756423285</v>
-      </c>
-      <c r="AH2">
-        <v>-4.146248432363437E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>1.3715984169653523</v>
-      </c>
-      <c r="C3">
-        <v>1.9269427562216529E-2</v>
-      </c>
-      <c r="D3">
-        <v>-5.1115468955230503E-2</v>
-      </c>
-      <c r="E3">
-        <v>-6.8153958606973999E-2</v>
-      </c>
-      <c r="F3">
-        <v>-3.4076979303487E-2</v>
-      </c>
-      <c r="G3">
-        <v>-3.4076979303487E-2</v>
-      </c>
-      <c r="H3">
-        <v>-0.11358993101162335</v>
-      </c>
-      <c r="I3">
-        <v>-0.11358993101162335</v>
-      </c>
-      <c r="J3">
-        <v>-3.4076979303487E-2</v>
-      </c>
-      <c r="K3">
-        <v>-3.4076979303487E-2</v>
-      </c>
-      <c r="L3">
-        <v>-2.5557734477615252E-2</v>
-      </c>
-      <c r="M3">
-        <v>-3.4076979303487E-2</v>
-      </c>
-      <c r="N3">
-        <v>-3.4076979303487E-2</v>
-      </c>
-      <c r="O3">
-        <v>-6.8153958606973999E-2</v>
-      </c>
-      <c r="P3">
-        <v>-3.4076979303487E-2</v>
-      </c>
-      <c r="Q3">
-        <v>-3.4076979303487E-2</v>
-      </c>
-      <c r="R3">
-        <v>-3.4076979303487E-2</v>
-      </c>
-      <c r="S3">
-        <v>0.10000000000000062</v>
-      </c>
-      <c r="T3">
-        <v>-5.1115468955230503E-2</v>
-      </c>
-      <c r="U3">
-        <v>-5.1115468955230503E-2</v>
-      </c>
-      <c r="V3">
-        <v>-5.1115468955230503E-2</v>
-      </c>
-      <c r="W3">
-        <v>-5.1115468955230503E-2</v>
-      </c>
-      <c r="X3">
-        <v>-5.1115468955230503E-2</v>
-      </c>
-      <c r="Y3">
-        <v>-0.12494892411278567</v>
-      </c>
-      <c r="Z3">
-        <v>-0.12494892411278567</v>
-      </c>
-      <c r="AA3">
-        <v>-3.4076979303487E-2</v>
-      </c>
-      <c r="AB3">
-        <v>-3.4076979303487E-2</v>
-      </c>
-      <c r="AC3">
-        <v>-3.4076979303487E-2</v>
-      </c>
-      <c r="AD3">
-        <v>-6.8153958606973999E-2</v>
-      </c>
-      <c r="AE3">
-        <v>-0.11358993101162335</v>
-      </c>
-      <c r="AF3">
-        <v>-8.5192448258717496E-2</v>
-      </c>
-      <c r="AG3">
-        <v>0.16470539996685388</v>
-      </c>
-      <c r="AH3">
-        <v>-3.4076979303487E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>1.121823476702509</v>
-      </c>
-      <c r="C4">
-        <v>-4.6452317875880278E-2</v>
-      </c>
-      <c r="D4">
-        <v>-4.1807086088292249E-2</v>
-      </c>
-      <c r="E4">
-        <v>-5.5742781451056322E-2</v>
-      </c>
-      <c r="F4">
-        <v>-2.7871390725528161E-2</v>
-      </c>
-      <c r="G4">
-        <v>-2.7871390725528161E-2</v>
-      </c>
-      <c r="H4">
-        <v>-9.2904635751760556E-2</v>
-      </c>
-      <c r="I4">
-        <v>-9.2904635751760556E-2</v>
-      </c>
-      <c r="J4">
-        <v>-2.7871390725528161E-2</v>
-      </c>
-      <c r="K4">
-        <v>-2.7871390725528161E-2</v>
-      </c>
-      <c r="L4">
-        <v>-2.0903543044146124E-2</v>
-      </c>
-      <c r="M4">
-        <v>-2.7871390725528161E-2</v>
-      </c>
-      <c r="N4">
-        <v>-2.7871390725528161E-2</v>
-      </c>
-      <c r="O4">
-        <v>-5.5742781451056322E-2</v>
-      </c>
-      <c r="P4">
-        <v>-2.7871390725528161E-2</v>
-      </c>
-      <c r="Q4">
-        <v>-2.7871390725528161E-2</v>
-      </c>
-      <c r="R4">
-        <v>-2.7871390725528161E-2</v>
-      </c>
-      <c r="S4">
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="T4">
-        <v>2.1950993269457542E-3</v>
-      </c>
-      <c r="U4">
-        <v>-4.1807086088292249E-2</v>
-      </c>
-      <c r="V4">
-        <v>-4.1807086088292249E-2</v>
-      </c>
-      <c r="W4">
-        <v>-4.1807086088292249E-2</v>
-      </c>
-      <c r="X4">
-        <v>-4.1807086088292249E-2</v>
-      </c>
-      <c r="Y4">
-        <v>-0.1021950993269366</v>
-      </c>
-      <c r="Z4">
-        <v>-0.1021950993269366</v>
-      </c>
-      <c r="AA4">
-        <v>-2.7871390725528161E-2</v>
-      </c>
-      <c r="AB4">
-        <v>-2.7871390725528161E-2</v>
-      </c>
-      <c r="AC4">
-        <v>-2.7871390725528161E-2</v>
-      </c>
-      <c r="AD4">
-        <v>-5.5742781451056322E-2</v>
-      </c>
-      <c r="AE4">
-        <v>-9.2904635751760556E-2</v>
-      </c>
-      <c r="AF4">
-        <v>-6.9678476813820403E-2</v>
-      </c>
-      <c r="AG4">
-        <v>0.13471172184005281</v>
-      </c>
-      <c r="AH4">
-        <v>-2.7871390725528161E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5">
-        <v>1.0068670848267625</v>
-      </c>
-      <c r="C5">
-        <v>-1.2446340449838698E-2</v>
-      </c>
-      <c r="D5">
-        <v>-3.7522996950065668E-2</v>
-      </c>
-      <c r="E5">
-        <v>-5.0030662600087553E-2</v>
-      </c>
-      <c r="F5">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="G5">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="H5">
-        <v>-8.3384437666812597E-2</v>
-      </c>
-      <c r="I5">
-        <v>-8.3384437666812597E-2</v>
-      </c>
-      <c r="J5">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="K5">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="L5">
-        <v>-1.8761498475032834E-2</v>
-      </c>
-      <c r="M5">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="N5">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="O5">
-        <v>-5.0030662600087553E-2</v>
-      </c>
-      <c r="P5">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="Q5">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="R5">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="S5">
-        <v>9.999999999999995E-2</v>
-      </c>
-      <c r="T5">
-        <v>-3.7522996950065668E-2</v>
-      </c>
-      <c r="U5">
-        <v>-3.7522996950065668E-2</v>
-      </c>
-      <c r="V5">
-        <v>-3.7522996950065668E-2</v>
-      </c>
-      <c r="W5">
-        <v>-3.7522996950065668E-2</v>
-      </c>
-      <c r="X5">
-        <v>-3.7522996950065668E-2</v>
-      </c>
-      <c r="Y5">
-        <v>-9.1722881433493858E-2</v>
-      </c>
-      <c r="Z5">
-        <v>-9.1722881433493858E-2</v>
-      </c>
-      <c r="AA5">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="AB5">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="AC5">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="AD5">
-        <v>-5.0030662600087553E-2</v>
-      </c>
-      <c r="AE5">
-        <v>-8.3384437666812597E-2</v>
-      </c>
-      <c r="AF5">
-        <v>-6.2538328250109437E-2</v>
-      </c>
-      <c r="AG5">
-        <v>0.12090743461687828</v>
-      </c>
-      <c r="AH5">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>1.0068670848267625</v>
-      </c>
-      <c r="C6">
-        <v>-4.1692218833406298E-2</v>
-      </c>
-      <c r="D6">
-        <v>-3.7522996950065668E-2</v>
-      </c>
-      <c r="E6">
-        <v>-5.0030662600087553E-2</v>
-      </c>
-      <c r="F6">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="G6">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="H6">
-        <v>-8.3384437666812597E-2</v>
-      </c>
-      <c r="I6">
-        <v>-8.3384437666812597E-2</v>
-      </c>
-      <c r="J6">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="K6">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="L6">
-        <v>-1.8761498475032834E-2</v>
-      </c>
-      <c r="M6">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="N6">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="O6">
-        <v>-5.0030662600087553E-2</v>
-      </c>
-      <c r="P6">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="Q6">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="R6">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="S6">
-        <v>9.999999999999995E-2</v>
-      </c>
-      <c r="T6">
-        <v>-8.2771185664980672E-3</v>
-      </c>
-      <c r="U6">
-        <v>-3.7522996950065668E-2</v>
-      </c>
-      <c r="V6">
-        <v>-3.7522996950065668E-2</v>
-      </c>
-      <c r="W6">
-        <v>-3.7522996950065668E-2</v>
-      </c>
-      <c r="X6">
-        <v>-3.7522996950065668E-2</v>
-      </c>
-      <c r="Y6">
-        <v>-9.1722881433493858E-2</v>
-      </c>
-      <c r="Z6">
-        <v>-9.1722881433493858E-2</v>
-      </c>
-      <c r="AA6">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="AB6">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="AC6">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-      <c r="AD6">
-        <v>-5.0030662600087553E-2</v>
-      </c>
-      <c r="AE6">
-        <v>-8.3384437666812597E-2</v>
-      </c>
-      <c r="AF6">
-        <v>-6.2538328250109437E-2</v>
-      </c>
-      <c r="AG6">
-        <v>0.12090743461687828</v>
-      </c>
-      <c r="AH6">
-        <v>-2.5015331300043776E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>1.4305096828612573</v>
-      </c>
-      <c r="C7">
-        <v>-5.6165492949036645E-2</v>
-      </c>
-      <c r="D7">
-        <v>-5.0548943654132983E-2</v>
-      </c>
-      <c r="E7">
-        <v>-6.7398591538843963E-2</v>
-      </c>
-      <c r="F7">
-        <v>-3.3699295769421982E-2</v>
-      </c>
-      <c r="G7">
-        <v>-3.3699295769421982E-2</v>
-      </c>
-      <c r="H7">
-        <v>-0.11233098589807329</v>
-      </c>
-      <c r="I7">
-        <v>-0.11233098589807329</v>
-      </c>
-      <c r="J7">
-        <v>-3.3699295769421982E-2</v>
-      </c>
-      <c r="K7">
-        <v>-3.3699295769421982E-2</v>
-      </c>
-      <c r="L7">
-        <v>-2.5274471827066491E-2</v>
-      </c>
-      <c r="M7">
-        <v>-3.3699295769421982E-2</v>
-      </c>
-      <c r="N7">
-        <v>-3.3699295769421982E-2</v>
-      </c>
-      <c r="O7">
-        <v>-6.7398591538843963E-2</v>
-      </c>
-      <c r="P7">
-        <v>-3.3699295769421982E-2</v>
-      </c>
-      <c r="Q7">
-        <v>-3.3699295769421982E-2</v>
-      </c>
-      <c r="R7">
-        <v>-3.3699295769421982E-2</v>
-      </c>
-      <c r="S7">
-        <v>0.10000000000000042</v>
-      </c>
-      <c r="T7">
-        <v>-5.0548943654132983E-2</v>
-      </c>
-      <c r="U7">
-        <v>-5.0548943654132983E-2</v>
-      </c>
-      <c r="V7">
-        <v>-5.0548943654132983E-2</v>
-      </c>
-      <c r="W7">
-        <v>-5.0548943654132983E-2</v>
-      </c>
-      <c r="X7">
-        <v>-5.0548943654132983E-2</v>
-      </c>
-      <c r="Y7">
-        <v>-0.12356408448788062</v>
-      </c>
-      <c r="Z7">
-        <v>-0.12356408448788062</v>
-      </c>
-      <c r="AA7">
-        <v>-3.3699295769421982E-2</v>
-      </c>
-      <c r="AB7">
-        <v>-3.3699295769421982E-2</v>
-      </c>
-      <c r="AC7">
-        <v>-3.3699295769421982E-2</v>
-      </c>
-      <c r="AD7">
-        <v>-6.7398591538843963E-2</v>
-      </c>
-      <c r="AE7">
-        <v>-0.11233098589807329</v>
-      </c>
-      <c r="AF7">
-        <v>-8.4248239423554958E-2</v>
-      </c>
-      <c r="AG7">
-        <v>0.16287992955220629</v>
-      </c>
-      <c r="AH7">
-        <v>-3.3699295769421982E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8">
-        <v>1.7411011051373955</v>
-      </c>
-      <c r="C8">
-        <v>-1.3867450576912611E-2</v>
-      </c>
-      <c r="D8">
-        <v>-6.4885755470958817E-2</v>
-      </c>
-      <c r="E8">
-        <v>-8.651434062794508E-2</v>
-      </c>
-      <c r="F8">
-        <v>-4.325717031397254E-2</v>
-      </c>
-      <c r="G8">
-        <v>-4.325717031397254E-2</v>
-      </c>
-      <c r="H8">
-        <v>-0.14419056771324182</v>
-      </c>
-      <c r="I8">
-        <v>-0.14419056771324182</v>
-      </c>
-      <c r="J8">
-        <v>-4.325717031397254E-2</v>
-      </c>
-      <c r="K8">
-        <v>-4.325717031397254E-2</v>
-      </c>
-      <c r="L8">
-        <v>-3.2442877735479408E-2</v>
-      </c>
-      <c r="M8">
-        <v>-4.325717031397254E-2</v>
-      </c>
-      <c r="N8">
-        <v>-4.325717031397254E-2</v>
-      </c>
-      <c r="O8">
-        <v>-5.101830489403178E-2</v>
-      </c>
-      <c r="P8">
-        <v>-1.3485659372056039E-2</v>
-      </c>
-      <c r="Q8">
-        <v>-4.325717031397254E-2</v>
-      </c>
-      <c r="R8">
-        <v>-4.325717031397254E-2</v>
-      </c>
-      <c r="S8">
-        <v>0.10000000000000085</v>
-      </c>
-      <c r="T8">
-        <v>-6.4885755470958817E-2</v>
-      </c>
-      <c r="U8">
-        <v>-6.4885755470958817E-2</v>
-      </c>
-      <c r="V8">
-        <v>-6.4885755470958817E-2</v>
-      </c>
-      <c r="W8">
-        <v>-6.4885755470958817E-2</v>
-      </c>
-      <c r="X8">
-        <v>-6.4885755470958817E-2</v>
-      </c>
-      <c r="Y8">
-        <v>-0.158609624484566</v>
-      </c>
-      <c r="Z8">
-        <v>-0.158609624484566</v>
-      </c>
-      <c r="AA8">
-        <v>-4.325717031397254E-2</v>
-      </c>
-      <c r="AB8">
-        <v>-4.325717031397254E-2</v>
-      </c>
-      <c r="AC8">
-        <v>-4.325717031397254E-2</v>
-      </c>
-      <c r="AD8">
-        <v>-8.651434062794508E-2</v>
-      </c>
-      <c r="AE8">
-        <v>-0.14419056771324182</v>
-      </c>
-      <c r="AF8">
-        <v>-0.10814292578493134</v>
-      </c>
-      <c r="AG8">
-        <v>0.20907632318420066</v>
-      </c>
-      <c r="AH8">
-        <v>-4.325717031397254E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9">
-        <v>2.1717084911325082</v>
-      </c>
-      <c r="C9">
-        <v>-9.1935156120523082E-2</v>
-      </c>
-      <c r="D9">
-        <v>-8.2741640508470771E-2</v>
-      </c>
-      <c r="E9">
-        <v>-0.11032218734462769</v>
-      </c>
-      <c r="F9">
-        <v>-5.5161093672313845E-2</v>
-      </c>
-      <c r="G9">
-        <v>-5.5161093672313845E-2</v>
-      </c>
-      <c r="H9">
-        <v>-0.18387031224104616</v>
-      </c>
-      <c r="I9">
-        <v>-0.18387031224104616</v>
-      </c>
-      <c r="J9">
-        <v>-5.5161093672313845E-2</v>
-      </c>
-      <c r="K9">
-        <v>-5.5161093672313845E-2</v>
-      </c>
-      <c r="L9">
-        <v>-4.1370820254235385E-2</v>
-      </c>
-      <c r="M9">
-        <v>-5.2603142554434802E-2</v>
-      </c>
-      <c r="N9">
-        <v>-5.5161093672313845E-2</v>
-      </c>
-      <c r="O9">
-        <v>0.11994833898548231</v>
-      </c>
-      <c r="P9">
-        <v>-5.5161093672313845E-2</v>
-      </c>
-      <c r="Q9">
-        <v>-5.5161093672313845E-2</v>
-      </c>
-      <c r="R9">
-        <v>-5.4465057968539655E-2</v>
-      </c>
-      <c r="S9">
-        <v>0.10000000000000062</v>
-      </c>
-      <c r="T9">
-        <v>-8.2741640508470771E-2</v>
-      </c>
-      <c r="U9">
-        <v>-8.2741640508470771E-2</v>
-      </c>
-      <c r="V9">
-        <v>-8.2741640508470771E-2</v>
-      </c>
-      <c r="W9">
-        <v>-8.2741640508470771E-2</v>
-      </c>
-      <c r="X9">
-        <v>-8.2741640508470771E-2</v>
-      </c>
-      <c r="Y9">
-        <v>-0.20225734346515079</v>
-      </c>
-      <c r="Z9">
-        <v>-0.20225734346515079</v>
-      </c>
-      <c r="AA9">
-        <v>-5.5161093672313845E-2</v>
-      </c>
-      <c r="AB9">
-        <v>-5.5161093672313845E-2</v>
-      </c>
-      <c r="AC9">
-        <v>-5.5161093672313845E-2</v>
-      </c>
-      <c r="AD9">
-        <v>-0.11032218734462769</v>
-      </c>
-      <c r="AE9">
-        <v>-0.18387031224104616</v>
-      </c>
-      <c r="AF9">
-        <v>-0.13790273418078461</v>
-      </c>
-      <c r="AG9">
-        <v>0.26661195274951699</v>
-      </c>
-      <c r="AH9">
-        <v>-5.5161093672313845E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10">
-        <v>2.3598486390938525</v>
-      </c>
-      <c r="C10">
-        <v>-0.10307727984446073</v>
-      </c>
-      <c r="D10">
-        <v>-9.2769551860014662E-2</v>
-      </c>
-      <c r="E10">
-        <v>-0.12369273581335286</v>
-      </c>
-      <c r="F10">
-        <v>-6.1846367906676428E-2</v>
-      </c>
-      <c r="G10">
-        <v>-6.1846367906676428E-2</v>
-      </c>
-      <c r="H10">
-        <v>-0.20615455968892146</v>
-      </c>
-      <c r="I10">
-        <v>-0.20615455968892146</v>
-      </c>
-      <c r="J10">
-        <v>-6.1846367906676428E-2</v>
-      </c>
-      <c r="K10">
-        <v>-6.1846367906676428E-2</v>
-      </c>
-      <c r="L10">
-        <v>-3.030211460902103E-2</v>
-      </c>
-      <c r="M10">
-        <v>-6.2450045135165055E-16</v>
-      </c>
-      <c r="N10">
-        <v>-6.1846367906676428E-2</v>
-      </c>
-      <c r="O10">
-        <v>0.13448553335000715</v>
-      </c>
-      <c r="P10">
-        <v>-6.1846367906676428E-2</v>
-      </c>
-      <c r="Q10">
-        <v>-6.1846367906676428E-2</v>
-      </c>
-      <c r="R10">
-        <v>-4.8946429629977931E-2</v>
-      </c>
-      <c r="S10">
-        <v>0.10000000000000037</v>
-      </c>
-      <c r="T10">
-        <v>-9.2769551860014662E-2</v>
-      </c>
-      <c r="U10">
-        <v>-9.2769551860014662E-2</v>
-      </c>
-      <c r="V10">
-        <v>-9.2769551860014662E-2</v>
-      </c>
-      <c r="W10">
-        <v>-9.2769551860014662E-2</v>
-      </c>
-      <c r="X10">
-        <v>-9.2769551860014662E-2</v>
-      </c>
-      <c r="Y10">
-        <v>-0.2267700156578136</v>
-      </c>
-      <c r="Z10">
-        <v>-0.2267700156578136</v>
-      </c>
-      <c r="AA10">
-        <v>-6.1846367906676428E-2</v>
-      </c>
-      <c r="AB10">
-        <v>-6.1846367906676428E-2</v>
-      </c>
-      <c r="AC10">
-        <v>-6.1846367906676428E-2</v>
-      </c>
-      <c r="AD10">
-        <v>-0.12369273581335286</v>
-      </c>
-      <c r="AE10">
-        <v>-0.20615455968892146</v>
-      </c>
-      <c r="AF10">
-        <v>-0.15461591976669109</v>
-      </c>
-      <c r="AG10">
-        <v>0.29892411154893617</v>
-      </c>
-      <c r="AH10">
-        <v>-6.1846367906676428E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11">
-        <v>2.4434109223582787</v>
-      </c>
-      <c r="C11">
-        <v>-0.10877469568680409</v>
-      </c>
-      <c r="D11">
-        <v>-9.7897226118123681E-2</v>
-      </c>
-      <c r="E11">
-        <v>-0.13052963482416488</v>
-      </c>
-      <c r="F11">
-        <v>-6.526481741208244E-2</v>
-      </c>
-      <c r="G11">
-        <v>-6.526481741208244E-2</v>
-      </c>
-      <c r="H11">
-        <v>-0.21754939137360818</v>
-      </c>
-      <c r="I11">
-        <v>-0.21754939137360818</v>
-      </c>
-      <c r="J11">
-        <v>-6.526481741208244E-2</v>
-      </c>
-      <c r="K11">
-        <v>-6.526481741208244E-2</v>
-      </c>
-      <c r="L11">
-        <v>-4.8948613059061841E-2</v>
-      </c>
-      <c r="M11">
-        <v>5.0145558470137561E-2</v>
-      </c>
-      <c r="N11">
-        <v>-6.526481741208244E-2</v>
-      </c>
-      <c r="O11">
-        <v>0.13383302651389914</v>
-      </c>
-      <c r="P11">
-        <v>-6.526481741208244E-2</v>
-      </c>
-      <c r="Q11">
-        <v>-4.2893141167395843E-2</v>
-      </c>
-      <c r="R11">
-        <v>-6.526481741208244E-2</v>
-      </c>
-      <c r="S11">
-        <v>9.9999999999999728E-2</v>
-      </c>
-      <c r="T11">
-        <v>-9.7897226118123681E-2</v>
-      </c>
-      <c r="U11">
-        <v>-9.7897226118123681E-2</v>
-      </c>
-      <c r="V11">
-        <v>-9.7897226118123681E-2</v>
-      </c>
-      <c r="W11">
-        <v>-9.7897226118123681E-2</v>
-      </c>
-      <c r="X11">
-        <v>-9.7897226118123681E-2</v>
-      </c>
-      <c r="Y11">
-        <v>-0.239304330510969</v>
-      </c>
-      <c r="Z11">
-        <v>-0.239304330510969</v>
-      </c>
-      <c r="AA11">
-        <v>-6.526481741208244E-2</v>
-      </c>
-      <c r="AB11">
-        <v>-6.526481741208244E-2</v>
-      </c>
-      <c r="AC11">
-        <v>-6.526481741208244E-2</v>
-      </c>
-      <c r="AD11">
-        <v>-0.13052963482416488</v>
-      </c>
-      <c r="AE11">
-        <v>-0.19899456973143398</v>
-      </c>
-      <c r="AF11">
-        <v>-0.16316204353020611</v>
-      </c>
-      <c r="AG11">
-        <v>0.31544661749173186</v>
-      </c>
-      <c r="AH11">
-        <v>-6.526481741208244E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12">
-        <v>2.256198886752474</v>
-      </c>
-      <c r="C12">
-        <v>-0.15020276671856653</v>
-      </c>
-      <c r="D12">
-        <v>-0.13518249004670987</v>
-      </c>
-      <c r="E12">
-        <v>-0.18024332006227983</v>
-      </c>
-      <c r="F12">
-        <v>0.36048664012455967</v>
-      </c>
-      <c r="G12">
-        <v>-9.0121660031139916E-2</v>
-      </c>
-      <c r="H12">
-        <v>-0.30040553343713305</v>
-      </c>
-      <c r="I12">
-        <v>-0.30040553343713305</v>
-      </c>
-      <c r="J12">
-        <v>-9.0121660031139916E-2</v>
-      </c>
-      <c r="K12">
-        <v>0.36048664012455967</v>
-      </c>
-      <c r="L12">
-        <v>-6.7591245023354937E-2</v>
-      </c>
-      <c r="M12">
-        <v>-9.0121660031139916E-2</v>
-      </c>
-      <c r="N12">
-        <v>-9.0121660031139916E-2</v>
-      </c>
-      <c r="O12">
-        <v>-0.18024332006227983</v>
-      </c>
-      <c r="P12">
-        <v>4.4987565246697087E-2</v>
-      </c>
-      <c r="Q12">
-        <v>-3.1973073227275717E-2</v>
-      </c>
-      <c r="R12">
-        <v>-9.0121660031139916E-2</v>
-      </c>
-      <c r="S12">
-        <v>0.10000000000000131</v>
-      </c>
-      <c r="T12">
-        <v>-0.10000000000000007</v>
-      </c>
-      <c r="U12">
-        <v>-0.10000000000000017</v>
-      </c>
-      <c r="V12">
-        <v>-9.9999999999999867E-2</v>
-      </c>
-      <c r="W12">
-        <v>-9.9999999999999978E-2</v>
-      </c>
-      <c r="X12">
-        <v>-0.10000000000000017</v>
-      </c>
-      <c r="Y12">
-        <v>-0.40000000000000036</v>
-      </c>
-      <c r="Z12">
-        <v>-0.50000000000000033</v>
-      </c>
-      <c r="AA12">
-        <v>0.66089217356169283</v>
-      </c>
-      <c r="AB12">
-        <v>-9.0121660031139916E-2</v>
-      </c>
-      <c r="AC12">
-        <v>-9.0121660031139916E-2</v>
-      </c>
-      <c r="AD12">
-        <v>-0.18024332006227983</v>
-      </c>
-      <c r="AE12">
-        <v>-0.30040553343713305</v>
-      </c>
-      <c r="AF12">
-        <v>-0.22530415007784979</v>
-      </c>
-      <c r="AG12">
-        <v>0.3999999999999978</v>
-      </c>
-      <c r="AH12">
-        <v>-0.10000000000000013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13">
-        <v>2.2542682900656676</v>
-      </c>
-      <c r="C13">
-        <v>-0.14980162213374854</v>
-      </c>
-      <c r="D13">
-        <v>-0.1348214599203737</v>
-      </c>
-      <c r="E13">
-        <v>-0.17976194656049824</v>
-      </c>
-      <c r="F13">
-        <v>0.35952389312099647</v>
-      </c>
-      <c r="G13">
-        <v>-8.9880973280249118E-2</v>
-      </c>
-      <c r="H13">
-        <v>-0.29960324426749707</v>
-      </c>
-      <c r="I13">
-        <v>-0.29960324426749707</v>
-      </c>
-      <c r="J13">
-        <v>-8.9880973280249118E-2</v>
-      </c>
-      <c r="K13">
-        <v>0.35952389312099647</v>
-      </c>
-      <c r="L13">
-        <v>-6.7410729960186849E-2</v>
-      </c>
-      <c r="M13">
-        <v>-8.9880973280249118E-2</v>
-      </c>
-      <c r="N13">
-        <v>-8.9880973280249118E-2</v>
-      </c>
-      <c r="O13">
-        <v>-0.17976194656049824</v>
-      </c>
-      <c r="P13">
-        <v>4.2593264561198871E-2</v>
-      </c>
-      <c r="Q13">
-        <v>-3.1037847596678519E-2</v>
-      </c>
-      <c r="R13">
-        <v>-8.9880973280249118E-2</v>
-      </c>
-      <c r="S13">
-        <v>9.9999999999999534E-2</v>
-      </c>
-      <c r="T13">
-        <v>-0.10000000000000009</v>
-      </c>
-      <c r="U13">
-        <v>-0.1000000000000002</v>
-      </c>
-      <c r="V13">
-        <v>-9.9999999999999895E-2</v>
-      </c>
-      <c r="W13">
-        <v>-0.10000000000000009</v>
-      </c>
-      <c r="X13">
-        <v>-9.9999999999999506E-2</v>
-      </c>
-      <c r="Y13">
-        <v>-0.4000000000000008</v>
-      </c>
-      <c r="Z13">
-        <v>-0.50000000000000078</v>
-      </c>
-      <c r="AA13">
-        <v>0.6591271373884936</v>
-      </c>
-      <c r="AB13">
-        <v>-8.9880973280249118E-2</v>
-      </c>
-      <c r="AC13">
-        <v>-8.9880973280249118E-2</v>
-      </c>
-      <c r="AD13">
-        <v>-0.17976194656049824</v>
-      </c>
-      <c r="AE13">
-        <v>-0.29960324426749707</v>
-      </c>
-      <c r="AF13">
-        <v>-0.22470243320062283</v>
-      </c>
-      <c r="AG13">
-        <v>0.3898809732802484</v>
-      </c>
-      <c r="AH13">
-        <v>-8.9880973280249118E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14">
-        <v>2.2799576814626974</v>
-      </c>
-      <c r="C14">
-        <v>-0.1551394331414081</v>
-      </c>
-      <c r="D14">
-        <v>-0.1396254898272673</v>
-      </c>
-      <c r="E14">
-        <v>-0.1861673197696897</v>
-      </c>
-      <c r="F14">
-        <v>0.3723346395393794</v>
-      </c>
-      <c r="G14">
-        <v>-9.3083659884844849E-2</v>
-      </c>
-      <c r="H14">
-        <v>-0.3102788662828162</v>
-      </c>
-      <c r="I14">
-        <v>-0.3102788662828162</v>
-      </c>
-      <c r="J14">
-        <v>-9.3083659884844849E-2</v>
-      </c>
-      <c r="K14">
-        <v>0.3723346395393794</v>
-      </c>
-      <c r="L14">
-        <v>-6.9812744913633651E-2</v>
-      </c>
-      <c r="M14">
-        <v>-9.3083659884844849E-2</v>
-      </c>
-      <c r="N14">
-        <v>-9.3083659884844849E-2</v>
-      </c>
-      <c r="O14">
-        <v>-0.1861673197696897</v>
-      </c>
-      <c r="P14">
-        <v>7.4452910779600145E-2</v>
-      </c>
-      <c r="Q14">
-        <v>-4.3482382197386947E-2</v>
-      </c>
-      <c r="R14">
-        <v>-9.3083659884844849E-2</v>
-      </c>
-      <c r="S14">
-        <v>0.1000000000000002</v>
-      </c>
-      <c r="T14">
-        <v>-0.1000000000000002</v>
-      </c>
-      <c r="U14">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="V14">
-        <v>-9.99999999999997E-2</v>
-      </c>
-      <c r="W14">
-        <v>-0.1</v>
-      </c>
-      <c r="X14">
-        <v>-0.1000000000000006</v>
-      </c>
-      <c r="Y14">
-        <v>-0.4</v>
-      </c>
-      <c r="Z14">
-        <v>-0.5</v>
-      </c>
-      <c r="AA14">
-        <v>0.68261350582219571</v>
-      </c>
-      <c r="AB14">
-        <v>-9.3083659884844849E-2</v>
-      </c>
-      <c r="AC14">
-        <v>-9.3083659884844849E-2</v>
-      </c>
-      <c r="AD14">
-        <v>-0.1861673197696897</v>
-      </c>
-      <c r="AE14">
-        <v>-0.3102788662828162</v>
-      </c>
-      <c r="AF14">
-        <v>-0.23270914971211215</v>
-      </c>
-      <c r="AG14">
-        <v>0.39308365988484384</v>
-      </c>
-      <c r="AH14">
-        <v>-9.3083659884844849E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15">
-        <v>2.2293573650746099</v>
-      </c>
-      <c r="C15">
-        <v>-0.14462556297480589</v>
-      </c>
-      <c r="D15">
-        <v>-0.1301630066773253</v>
-      </c>
-      <c r="E15">
-        <v>-0.17355067556976705</v>
-      </c>
-      <c r="F15">
-        <v>0.34710135113953411</v>
-      </c>
-      <c r="G15">
-        <v>-8.6775337784883527E-2</v>
-      </c>
-      <c r="H15">
-        <v>-0.28925112594961178</v>
-      </c>
-      <c r="I15">
-        <v>-0.28925112594961178</v>
-      </c>
-      <c r="J15">
-        <v>-8.6775337784883527E-2</v>
-      </c>
-      <c r="K15">
-        <v>0.34710135113953411</v>
-      </c>
-      <c r="L15">
-        <v>-6.5081503338662652E-2</v>
-      </c>
-      <c r="M15">
-        <v>-8.6775337784883527E-2</v>
-      </c>
-      <c r="N15">
-        <v>-8.6775337784883527E-2</v>
-      </c>
-      <c r="O15">
-        <v>-0.17355067556976705</v>
-      </c>
-      <c r="P15">
-        <v>1.1699062167592367E-2</v>
-      </c>
-      <c r="Q15">
-        <v>-1.8970420105081431E-2</v>
-      </c>
-      <c r="R15">
-        <v>-8.6775337784883527E-2</v>
-      </c>
-      <c r="S15">
-        <v>0.10000000000000031</v>
-      </c>
-      <c r="T15">
-        <v>-9.9999999999999908E-2</v>
-      </c>
-      <c r="U15">
-        <v>-0.1</v>
-      </c>
-      <c r="V15">
-        <v>-9.9999999999999603E-2</v>
-      </c>
-      <c r="W15">
-        <v>-0.1</v>
-      </c>
-      <c r="X15">
-        <v>-9.9999999999999603E-2</v>
-      </c>
-      <c r="Y15">
-        <v>-0.39999999999999969</v>
-      </c>
-      <c r="Z15">
-        <v>-0.50000000000000067</v>
-      </c>
-      <c r="AA15">
-        <v>0.63635247708914588</v>
-      </c>
-      <c r="AB15">
-        <v>-8.6775337784883527E-2</v>
-      </c>
-      <c r="AC15">
-        <v>-8.6775337784883527E-2</v>
-      </c>
-      <c r="AD15">
-        <v>-0.17355067556976705</v>
-      </c>
-      <c r="AE15">
-        <v>-0.28925112594961178</v>
-      </c>
-      <c r="AF15">
-        <v>-0.21693834446220883</v>
-      </c>
-      <c r="AG15">
-        <v>0.38677533778488321</v>
-      </c>
-      <c r="AH15">
-        <v>-8.6775337784883527E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16">
-        <v>2.1765886603721651</v>
-      </c>
-      <c r="C16">
-        <v>-0.13411169280820368</v>
-      </c>
-      <c r="D16">
-        <v>-0.12070052352738329</v>
-      </c>
-      <c r="E16">
-        <v>-0.16093403136984438</v>
-      </c>
-      <c r="F16">
-        <v>0.32186806273968877</v>
-      </c>
-      <c r="G16">
-        <v>-8.0467015684922191E-2</v>
-      </c>
-      <c r="H16">
-        <v>-0.26822338561640735</v>
-      </c>
-      <c r="I16">
-        <v>-0.26822338561640735</v>
-      </c>
-      <c r="J16">
-        <v>-8.0467015684922191E-2</v>
-      </c>
-      <c r="K16">
-        <v>0.32186806273968877</v>
-      </c>
-      <c r="L16">
-        <v>-6.0350261763691647E-2</v>
-      </c>
-      <c r="M16">
-        <v>-8.0467015684922191E-2</v>
-      </c>
-      <c r="N16">
-        <v>-8.0467015684922191E-2</v>
-      </c>
-      <c r="O16">
-        <v>-0.16093403136984438</v>
-      </c>
-      <c r="P16">
-        <v>-2.3811871827756792E-2</v>
-      </c>
-      <c r="Q16">
-        <v>-1.9532984315077689E-2</v>
-      </c>
-      <c r="R16">
-        <v>-8.0467015684922191E-2</v>
-      </c>
-      <c r="S16">
-        <v>0.10000000000000042</v>
-      </c>
-      <c r="T16">
-        <v>-0.1000000000000002</v>
-      </c>
-      <c r="U16">
-        <v>-9.9999999999999992E-2</v>
-      </c>
-      <c r="V16">
-        <v>-9.9999999999999895E-2</v>
-      </c>
-      <c r="W16">
-        <v>-0.10000000000000009</v>
-      </c>
-      <c r="X16">
-        <v>-0.10000000000000039</v>
-      </c>
-      <c r="Y16">
-        <v>-0.40000000000000036</v>
-      </c>
-      <c r="Z16">
-        <v>-0.5</v>
-      </c>
-      <c r="AA16">
-        <v>0.59009144835609617</v>
-      </c>
-      <c r="AB16">
-        <v>-8.0467015684922191E-2</v>
-      </c>
-      <c r="AC16">
-        <v>-8.0467015684922191E-2</v>
-      </c>
-      <c r="AD16">
-        <v>-0.16093403136984438</v>
-      </c>
-      <c r="AE16">
-        <v>-0.26822338561640735</v>
-      </c>
-      <c r="AF16">
-        <v>-0.20116753921230549</v>
-      </c>
-      <c r="AG16">
-        <v>0.38046701568492131</v>
-      </c>
-      <c r="AH16">
-        <v>-8.0467015684922191E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17">
-        <v>2.1995666142048305</v>
-      </c>
-      <c r="C17">
-        <v>-0.13864721464622715</v>
-      </c>
-      <c r="D17">
-        <v>-0.12478249318160442</v>
-      </c>
-      <c r="E17">
-        <v>-0.16637665757547254</v>
-      </c>
-      <c r="F17">
-        <v>0.33275331515094508</v>
-      </c>
-      <c r="G17">
-        <v>-8.3188328787736271E-2</v>
-      </c>
-      <c r="H17">
-        <v>-0.27729442929245429</v>
-      </c>
-      <c r="I17">
-        <v>-0.27729442929245429</v>
-      </c>
-      <c r="J17">
-        <v>-8.3188328787736271E-2</v>
-      </c>
-      <c r="K17">
-        <v>0.33275331515094508</v>
-      </c>
-      <c r="L17">
-        <v>-6.239124659080221E-2</v>
-      </c>
-      <c r="M17">
-        <v>-8.3188328787736271E-2</v>
-      </c>
-      <c r="N17">
-        <v>-8.3188328787736271E-2</v>
-      </c>
-      <c r="O17">
-        <v>-0.16637665757547254</v>
-      </c>
-      <c r="P17">
-        <v>-1.1185979231937468E-2</v>
-      </c>
-      <c r="Q17">
-        <v>-1.6811671212263374E-2</v>
-      </c>
-      <c r="R17">
-        <v>-8.3188328787736271E-2</v>
-      </c>
-      <c r="S17">
-        <v>0.10000000000000026</v>
-      </c>
-      <c r="T17">
-        <v>-0.10000000000000032</v>
-      </c>
-      <c r="U17">
-        <v>-0.10000000000000042</v>
-      </c>
-      <c r="V17">
-        <v>-9.9999999999999728E-2</v>
-      </c>
-      <c r="W17">
-        <v>-0.10000000000000002</v>
-      </c>
-      <c r="X17">
-        <v>-9.999999999999952E-2</v>
-      </c>
-      <c r="Y17">
-        <v>-0.39999999999999997</v>
-      </c>
-      <c r="Z17">
-        <v>-0.50000000000000011</v>
-      </c>
-      <c r="AA17">
-        <v>0.61004774444339949</v>
-      </c>
-      <c r="AB17">
-        <v>-8.3188328787736271E-2</v>
-      </c>
-      <c r="AC17">
-        <v>-8.3188328787736271E-2</v>
-      </c>
-      <c r="AD17">
-        <v>-0.16637665757547254</v>
-      </c>
-      <c r="AE17">
-        <v>-0.27729442929245429</v>
-      </c>
-      <c r="AF17">
-        <v>-0.20797082196934072</v>
-      </c>
-      <c r="AG17">
-        <v>0.38318832878773612</v>
-      </c>
-      <c r="AH17">
-        <v>-8.3188328787736271E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18">
-        <v>2.432975735349225</v>
-      </c>
-      <c r="C18">
-        <v>-0.10801197711436136</v>
-      </c>
-      <c r="D18">
-        <v>-9.7210779402925232E-2</v>
-      </c>
-      <c r="E18">
-        <v>-0.12961437253723362</v>
-      </c>
-      <c r="F18">
-        <v>-6.4807186268616812E-2</v>
-      </c>
-      <c r="G18">
-        <v>-6.4807186268616812E-2</v>
-      </c>
-      <c r="H18">
-        <v>-0.21602395422872273</v>
-      </c>
-      <c r="I18">
-        <v>-0.21602395422872273</v>
-      </c>
-      <c r="J18">
-        <v>-6.4807186268616812E-2</v>
-      </c>
-      <c r="K18">
-        <v>-6.4807186268616812E-2</v>
-      </c>
-      <c r="L18">
-        <v>-6.7905518198670134E-3</v>
-      </c>
-      <c r="M18">
-        <v>5.8286708792820718E-16</v>
-      </c>
-      <c r="N18">
-        <v>-3.0531133177191805E-16</v>
-      </c>
-      <c r="O18">
-        <v>-6.106226635438361E-16</v>
-      </c>
-      <c r="P18">
-        <v>-6.4807186268616812E-2</v>
-      </c>
-      <c r="Q18">
-        <v>-6.4807186268616812E-2</v>
-      </c>
-      <c r="R18">
-        <v>2.9614372537233286E-2</v>
-      </c>
-      <c r="S18">
-        <v>0.10000000000000028</v>
-      </c>
-      <c r="T18">
-        <v>-9.7210779402925232E-2</v>
-      </c>
-      <c r="U18">
-        <v>-9.7210779402925232E-2</v>
-      </c>
-      <c r="V18">
-        <v>-9.7210779402925232E-2</v>
-      </c>
-      <c r="W18">
-        <v>-9.7210779402925232E-2</v>
-      </c>
-      <c r="X18">
-        <v>-9.7210779402925232E-2</v>
-      </c>
-      <c r="Y18">
-        <v>-0.23762634965159501</v>
-      </c>
-      <c r="Z18">
-        <v>-0.23762634965159501</v>
-      </c>
-      <c r="AA18">
-        <v>-6.4807186268616812E-2</v>
-      </c>
-      <c r="AB18">
-        <v>-6.4807186268616812E-2</v>
-      </c>
-      <c r="AC18">
-        <v>-6.4807186268616812E-2</v>
-      </c>
-      <c r="AD18">
-        <v>-0.12961437253723362</v>
-      </c>
-      <c r="AE18">
-        <v>-0.20113845497349983</v>
-      </c>
-      <c r="AF18">
-        <v>-0.16201796567154203</v>
-      </c>
-      <c r="AG18">
-        <v>0.313234733631648</v>
-      </c>
-      <c r="AH18">
-        <v>-6.4807186268616812E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19">
-        <v>2.6574254829253401</v>
-      </c>
-      <c r="C19">
-        <v>-0.12921647236630868</v>
-      </c>
-      <c r="D19">
-        <v>-0.11629482512967781</v>
-      </c>
-      <c r="E19">
-        <v>-0.1550597668395704</v>
-      </c>
-      <c r="F19">
-        <v>-7.75298834197852E-2</v>
-      </c>
-      <c r="G19">
-        <v>-7.75298834197852E-2</v>
-      </c>
-      <c r="H19">
-        <v>-0.25843294473261735</v>
-      </c>
-      <c r="I19">
-        <v>-0.25843294473261735</v>
-      </c>
-      <c r="J19">
-        <v>-7.2526677625464636E-2</v>
-      </c>
-      <c r="K19">
-        <v>3.0531133177191805E-16</v>
-      </c>
-      <c r="L19">
-        <v>-5.8147412564838907E-2</v>
-      </c>
-      <c r="M19">
-        <v>6.4380009686512807E-2</v>
-      </c>
-      <c r="N19">
-        <v>-6.2325971216680986E-3</v>
-      </c>
-      <c r="O19">
-        <v>6.106226635438361E-16</v>
-      </c>
-      <c r="P19">
-        <v>3.0531133177191805E-16</v>
-      </c>
-      <c r="Q19">
-        <v>-7.75298834197852E-2</v>
-      </c>
-      <c r="R19">
-        <v>-2.2470116580214299E-2</v>
-      </c>
-      <c r="S19">
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="T19">
-        <v>-0.10000000000000021</v>
-      </c>
-      <c r="U19">
-        <v>-0.10000000000000012</v>
-      </c>
-      <c r="V19">
-        <v>-9.9999999999999617E-2</v>
-      </c>
-      <c r="W19">
-        <v>-0.10000000000000002</v>
-      </c>
-      <c r="X19">
-        <v>-0.11629482512967781</v>
-      </c>
-      <c r="Y19">
-        <v>-0.28427623920587913</v>
-      </c>
-      <c r="Z19">
-        <v>-0.28427623920587913</v>
-      </c>
-      <c r="AA19">
-        <v>-7.75298834197852E-2</v>
-      </c>
-      <c r="AB19">
-        <v>-7.75298834197852E-2</v>
-      </c>
-      <c r="AC19">
-        <v>-7.75298834197852E-2</v>
-      </c>
-      <c r="AD19">
-        <v>-0.1550597668395704</v>
-      </c>
-      <c r="AE19">
-        <v>-0.14327854191219236</v>
-      </c>
-      <c r="AF19">
-        <v>-0.19382470854946302</v>
-      </c>
-      <c r="AG19">
-        <v>0.37472776986229522</v>
-      </c>
-      <c r="AH19">
-        <v>-7.75298834197852E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20">
-        <v>2.8342344279509097</v>
-      </c>
-      <c r="C20">
-        <v>-0.14813281190092778</v>
-      </c>
-      <c r="D20">
-        <v>-0.13331953071083499</v>
-      </c>
-      <c r="E20">
-        <v>-0.1777593742811133</v>
-      </c>
-      <c r="F20">
-        <v>-8.8879687140556649E-2</v>
-      </c>
-      <c r="G20">
-        <v>-8.8879687140556649E-2</v>
-      </c>
-      <c r="H20">
-        <v>-0.29626562380185556</v>
-      </c>
-      <c r="I20">
-        <v>-0.29626562380185556</v>
-      </c>
-      <c r="J20">
-        <v>8.8034437664813447E-3</v>
-      </c>
-      <c r="K20">
-        <v>-4.4017218832411442E-3</v>
-      </c>
-      <c r="L20">
-        <v>-6.6659765355417497E-2</v>
-      </c>
-      <c r="M20">
-        <v>7.3804768776207355E-2</v>
-      </c>
-      <c r="N20">
-        <v>-8.8879687140556649E-2</v>
-      </c>
-      <c r="O20">
-        <v>0.11194342334072968</v>
-      </c>
-      <c r="P20">
-        <v>4.7550634660159338E-2</v>
-      </c>
-      <c r="Q20">
-        <v>-8.8879687140556649E-2</v>
-      </c>
-      <c r="R20">
-        <v>-8.8879687140556649E-2</v>
-      </c>
-      <c r="S20">
-        <v>0.1000000000000012</v>
-      </c>
-      <c r="T20">
-        <v>-9.9999999999999895E-2</v>
-      </c>
-      <c r="U20">
-        <v>-0.10000000000000009</v>
-      </c>
-      <c r="V20">
-        <v>-9.9999999999999895E-2</v>
-      </c>
-      <c r="W20">
-        <v>-9.9999999999999992E-2</v>
-      </c>
-      <c r="X20">
-        <v>-0.13331953071083499</v>
-      </c>
-      <c r="Y20">
-        <v>-0.32589218618204108</v>
-      </c>
-      <c r="Z20">
-        <v>-0.32589218618204108</v>
-      </c>
-      <c r="AA20">
-        <v>-8.8879687140556649E-2</v>
-      </c>
-      <c r="AB20">
-        <v>-8.8879687140556649E-2</v>
-      </c>
-      <c r="AC20">
-        <v>-8.8879687140556649E-2</v>
-      </c>
-      <c r="AD20">
-        <v>-0.15739084655985741</v>
-      </c>
-      <c r="AE20">
-        <v>-7.7800782148606556E-2</v>
-      </c>
-      <c r="AF20">
-        <v>-0.22219921785139163</v>
-      </c>
-      <c r="AG20">
-        <v>0.38887968714055676</v>
-      </c>
-      <c r="AH20">
-        <v>-8.8879687140556649E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21">
-        <v>2.8495502244270274</v>
-      </c>
-      <c r="C21">
-        <v>-0.14998447204968937</v>
-      </c>
-      <c r="D21">
-        <v>-0.13498602484472044</v>
-      </c>
-      <c r="E21">
-        <v>-0.17998136645962723</v>
-      </c>
-      <c r="F21">
-        <v>-8.9990683229813614E-2</v>
-      </c>
-      <c r="G21">
-        <v>-8.9990683229813614E-2</v>
-      </c>
-      <c r="H21">
-        <v>-0.29996894409937874</v>
-      </c>
-      <c r="I21">
-        <v>-0.29996894409937874</v>
-      </c>
-      <c r="J21">
-        <v>2.9705856658263391E-2</v>
-      </c>
-      <c r="K21">
-        <v>-8.9990683229813614E-2</v>
-      </c>
-      <c r="L21">
-        <v>-6.7493012422360221E-2</v>
-      </c>
-      <c r="M21">
-        <v>0.16214734140369536</v>
-      </c>
-      <c r="N21">
-        <v>-1.9516574080639615E-2</v>
-      </c>
-      <c r="O21">
-        <v>-8.2870427225279431E-2</v>
-      </c>
-      <c r="P21">
-        <v>0.16285179368490438</v>
-      </c>
-      <c r="Q21">
-        <v>-8.9990683229813614E-2</v>
-      </c>
-      <c r="R21">
-        <v>-8.9990683229813614E-2</v>
-      </c>
-      <c r="S21">
-        <v>0.10000000000000114</v>
-      </c>
-      <c r="T21">
-        <v>-0.10000000000000003</v>
-      </c>
-      <c r="U21">
-        <v>-0.10000000000000024</v>
-      </c>
-      <c r="V21">
-        <v>-9.9999999999999839E-2</v>
-      </c>
-      <c r="W21">
-        <v>-0.10000000000000003</v>
-      </c>
-      <c r="X21">
-        <v>-0.13498602484472044</v>
-      </c>
-      <c r="Y21">
-        <v>-0.3299658385093166</v>
-      </c>
-      <c r="Z21">
-        <v>-0.3299658385093166</v>
-      </c>
-      <c r="AA21">
-        <v>-8.9990683229813614E-2</v>
-      </c>
-      <c r="AB21">
-        <v>-8.9990683229813614E-2</v>
-      </c>
-      <c r="AC21">
-        <v>-8.9990683229813614E-2</v>
-      </c>
-      <c r="AD21">
-        <v>-0.15464228319094264</v>
-      </c>
-      <c r="AE21">
-        <v>-0.29996894409937874</v>
-      </c>
-      <c r="AF21">
-        <v>-3.1055900621052013E-5</v>
-      </c>
-      <c r="AG21">
-        <v>0.38999068322981173</v>
-      </c>
-      <c r="AH21">
-        <v>-8.9990683229813614E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22">
-        <v>2.8321061783165127</v>
-      </c>
-      <c r="C22">
-        <v>-0.14787550924998324</v>
-      </c>
-      <c r="D22">
-        <v>-0.13308795832498493</v>
-      </c>
-      <c r="E22">
-        <v>-0.17745061109997987</v>
-      </c>
-      <c r="F22">
-        <v>-8.8725305549989933E-2</v>
-      </c>
-      <c r="G22">
-        <v>-8.8725305549989933E-2</v>
-      </c>
-      <c r="H22">
-        <v>-0.29575101849996649</v>
-      </c>
-      <c r="I22">
-        <v>-0.2928015734429556</v>
-      </c>
-      <c r="J22">
-        <v>-2.7755575615628914E-17</v>
-      </c>
-      <c r="K22">
-        <v>2.5673907444456745E-15</v>
-      </c>
-      <c r="L22">
-        <v>3.7331249203020889E-15</v>
-      </c>
-      <c r="M22">
-        <v>-2.7755575615628914E-17</v>
-      </c>
-      <c r="N22">
-        <v>-8.8725305549989933E-2</v>
-      </c>
-      <c r="O22">
-        <v>0.12872851330112714</v>
-      </c>
-      <c r="P22">
-        <v>3.7447403348841071E-2</v>
-      </c>
-      <c r="Q22">
-        <v>-8.8725305549989933E-2</v>
-      </c>
-      <c r="R22">
-        <v>-8.8725305549989933E-2</v>
-      </c>
-      <c r="S22">
-        <v>0.10000000000000114</v>
-      </c>
-      <c r="T22">
-        <v>-0.10000000000000034</v>
-      </c>
-      <c r="U22">
-        <v>-0.10000000000000023</v>
-      </c>
-      <c r="V22">
-        <v>-9.9999999999999728E-2</v>
-      </c>
-      <c r="W22">
-        <v>-9.9999999999999936E-2</v>
-      </c>
-      <c r="X22">
-        <v>-0.13308795832498493</v>
-      </c>
-      <c r="Y22">
-        <v>-0.32532612034996317</v>
-      </c>
-      <c r="Z22">
-        <v>-0.32532612034996317</v>
-      </c>
-      <c r="AA22">
-        <v>-8.8725305549989933E-2</v>
-      </c>
-      <c r="AB22">
-        <v>-8.8725305549989933E-2</v>
-      </c>
-      <c r="AC22">
-        <v>-8.8725305549989933E-2</v>
-      </c>
-      <c r="AD22">
-        <v>-0.15777278092377556</v>
-      </c>
-      <c r="AE22">
-        <v>-7.8186736125023498E-2</v>
-      </c>
-      <c r="AF22">
-        <v>-0.22181326387497485</v>
-      </c>
-      <c r="AG22">
-        <v>0.38872530554998808</v>
-      </c>
-      <c r="AH22">
-        <v>-8.8725305549989933E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23">
-        <v>2.6759490379700597</v>
-      </c>
-      <c r="C23">
-        <v>-0.13117840507976081</v>
-      </c>
-      <c r="D23">
-        <v>-0.11806056457178474</v>
-      </c>
-      <c r="E23">
-        <v>-0.15741408609571295</v>
-      </c>
-      <c r="F23">
-        <v>-7.8707043047856473E-2</v>
-      </c>
-      <c r="G23">
-        <v>-7.8707043047856473E-2</v>
-      </c>
-      <c r="H23">
-        <v>-0.26235681015952161</v>
-      </c>
-      <c r="I23">
-        <v>-0.26235681015952161</v>
-      </c>
-      <c r="J23">
-        <v>-6.4598569780096177E-2</v>
-      </c>
-      <c r="K23">
-        <v>-7.8707043047856473E-2</v>
-      </c>
-      <c r="L23">
-        <v>-5.9030282285892369E-2</v>
-      </c>
-      <c r="M23">
-        <v>0.15693025925101553</v>
-      </c>
-      <c r="N23">
-        <v>-7.8707043047856473E-2</v>
-      </c>
-      <c r="O23">
-        <v>0.13918072618035504</v>
-      </c>
-      <c r="P23">
-        <v>-7.8707043047856473E-2</v>
-      </c>
-      <c r="Q23">
-        <v>-2.2252530954042275E-2</v>
-      </c>
-      <c r="R23">
-        <v>-7.8707043047856473E-2</v>
-      </c>
-      <c r="S23">
-        <v>0.10000000000000064</v>
-      </c>
-      <c r="T23">
-        <v>-9.9999999999999936E-2</v>
-      </c>
-      <c r="U23">
-        <v>-0.10000000000000014</v>
-      </c>
-      <c r="V23">
-        <v>-9.9999999999999936E-2</v>
-      </c>
-      <c r="W23">
-        <v>-0.10000000000000003</v>
-      </c>
-      <c r="X23">
-        <v>-0.11806056457178474</v>
-      </c>
-      <c r="Y23">
-        <v>-0.28859249117547381</v>
-      </c>
-      <c r="Z23">
-        <v>-0.28859249117547381</v>
-      </c>
-      <c r="AA23">
-        <v>-7.8707043047856473E-2</v>
-      </c>
-      <c r="AB23">
-        <v>-7.8707043047856473E-2</v>
-      </c>
-      <c r="AC23">
-        <v>-7.8707043047856473E-2</v>
-      </c>
-      <c r="AD23">
-        <v>-0.15741408609571295</v>
-      </c>
-      <c r="AE23">
-        <v>-0.13702133624628962</v>
-      </c>
-      <c r="AF23">
-        <v>-0.19676760761964121</v>
-      </c>
-      <c r="AG23">
-        <v>0.37870704304785674</v>
-      </c>
-      <c r="AH23">
-        <v>-7.8707043047856473E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24">
-        <v>2.4814040927357137</v>
-      </c>
-      <c r="C24">
-        <v>-0.11171529741188455</v>
-      </c>
-      <c r="D24">
-        <v>-0.1005437676706961</v>
-      </c>
-      <c r="E24">
-        <v>-0.13405835689426143</v>
-      </c>
-      <c r="F24">
-        <v>-6.7029178447130716E-2</v>
-      </c>
-      <c r="G24">
-        <v>-6.7029178447130716E-2</v>
-      </c>
-      <c r="H24">
-        <v>-0.22343059482376909</v>
-      </c>
-      <c r="I24">
-        <v>-0.22343059482376909</v>
-      </c>
-      <c r="J24">
-        <v>-6.7029178447130716E-2</v>
-      </c>
-      <c r="K24">
-        <v>-5.8455181908510047E-2</v>
-      </c>
-      <c r="L24">
-        <v>9.2495455739083354E-15</v>
-      </c>
-      <c r="M24">
-        <v>2.581268532253489E-15</v>
-      </c>
-      <c r="N24">
-        <v>-1.1102230246251565E-16</v>
-      </c>
-      <c r="O24">
-        <v>-4.4408920985006262E-16</v>
-      </c>
-      <c r="P24">
-        <v>-1.1102230246251565E-16</v>
-      </c>
-      <c r="Q24">
-        <v>-6.7029178447130716E-2</v>
-      </c>
-      <c r="R24">
-        <v>-3.2970821552868713E-2</v>
-      </c>
-      <c r="S24">
-        <v>0.10000000000000017</v>
-      </c>
-      <c r="T24">
-        <v>-0.10000000000000002</v>
-      </c>
-      <c r="U24">
-        <v>-0.10000000000000024</v>
-      </c>
-      <c r="V24">
-        <v>-9.9999999999999797E-2</v>
-      </c>
-      <c r="W24">
-        <v>-0.10000000000000002</v>
-      </c>
-      <c r="X24">
-        <v>-0.1005437676706961</v>
-      </c>
-      <c r="Y24">
-        <v>-0.24577365430614601</v>
-      </c>
-      <c r="Z24">
-        <v>-0.24577365430614601</v>
-      </c>
-      <c r="AA24">
-        <v>-6.7029178447130716E-2</v>
-      </c>
-      <c r="AB24">
-        <v>-6.7029178447130716E-2</v>
-      </c>
-      <c r="AC24">
-        <v>-6.7029178447130716E-2</v>
-      </c>
-      <c r="AD24">
-        <v>-0.13405835689426143</v>
-      </c>
-      <c r="AE24">
-        <v>-0.19081803327229369</v>
-      </c>
-      <c r="AF24">
-        <v>-0.1675729461178268</v>
-      </c>
-      <c r="AG24">
-        <v>0.32397436249446526</v>
-      </c>
-      <c r="AH24">
-        <v>-6.7029178447130716E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25">
-        <v>2.0086440377144612</v>
-      </c>
-      <c r="C25">
-        <v>-8.3071998733522764E-2</v>
-      </c>
-      <c r="D25">
-        <v>-7.4764798860170484E-2</v>
-      </c>
-      <c r="E25">
-        <v>-9.9686398480227298E-2</v>
-      </c>
-      <c r="F25">
-        <v>-4.9843199240113649E-2</v>
-      </c>
-      <c r="G25">
-        <v>-4.9843199240113649E-2</v>
-      </c>
-      <c r="H25">
-        <v>-0.16614399746704553</v>
-      </c>
-      <c r="I25">
-        <v>-0.16614399746704553</v>
-      </c>
-      <c r="J25">
-        <v>-4.9843199240113649E-2</v>
-      </c>
-      <c r="K25">
-        <v>-4.9843199240113649E-2</v>
-      </c>
-      <c r="L25">
-        <v>-3.7382399430085242E-2</v>
-      </c>
-      <c r="M25">
-        <v>-4.9843199240113649E-2</v>
-      </c>
-      <c r="N25">
-        <v>-4.3991267666637239E-2</v>
-      </c>
-      <c r="O25">
-        <v>-5.9674487573602164E-16</v>
-      </c>
-      <c r="P25">
-        <v>-3.1360151977404688E-4</v>
-      </c>
-      <c r="Q25">
-        <v>-4.9843199240113649E-2</v>
-      </c>
-      <c r="R25">
-        <v>-4.9843199240113649E-2</v>
-      </c>
-      <c r="S25">
-        <v>0.10000000000000059</v>
-      </c>
-      <c r="T25">
-        <v>-7.4764798860170484E-2</v>
-      </c>
-      <c r="U25">
-        <v>-7.4764798860170484E-2</v>
-      </c>
-      <c r="V25">
-        <v>-7.4764798860170484E-2</v>
-      </c>
-      <c r="W25">
-        <v>-7.4764798860170484E-2</v>
-      </c>
-      <c r="X25">
-        <v>-7.4764798860170484E-2</v>
-      </c>
-      <c r="Y25">
-        <v>-0.18275839721375009</v>
-      </c>
-      <c r="Z25">
-        <v>-0.18275839721375009</v>
-      </c>
-      <c r="AA25">
-        <v>-4.9843199240113649E-2</v>
-      </c>
-      <c r="AB25">
-        <v>-4.9843199240113649E-2</v>
-      </c>
-      <c r="AC25">
-        <v>-4.9843199240113649E-2</v>
-      </c>
-      <c r="AD25">
-        <v>-9.9686398480227298E-2</v>
-      </c>
-      <c r="AE25">
-        <v>-0.16614399746704553</v>
-      </c>
-      <c r="AF25">
-        <v>-0.12460799810028414</v>
-      </c>
-      <c r="AG25">
-        <v>0.24090879632721604</v>
-      </c>
-      <c r="AH25">
-        <v>-4.9843199240113649E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Setpoint_nodes.xlsx
+++ b/Setpoint_nodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="N15_calculations" sheetId="7" r:id="rId1"/>
@@ -4059,7 +4059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -9292,7 +9292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Setpoint_nodes.xlsx
+++ b/Setpoint_nodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="N15_calculations" sheetId="7" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Nodes15" sheetId="2" r:id="rId3"/>
     <sheet name="Nodes33" sheetId="3" r:id="rId4"/>
     <sheet name="Nodes33lines+0.1" sheetId="8" r:id="rId5"/>
-    <sheet name="Nodes_trial" sheetId="1" r:id="rId6"/>
+    <sheet name="Nodes15_trial" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="69">
   <si>
     <t>n1</t>
   </si>
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1956,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH38"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3595,243 +3595,6 @@
       </c>
       <c r="P21">
         <f t="shared" si="9"/>
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G24" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="H24" s="4">
-        <f t="shared" ref="H24:H38" si="10">+F24+G24</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <f t="shared" si="10"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="G26" s="4">
-        <v>-0.03</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="10"/>
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="4">
-        <v>-0.2</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <f t="shared" si="10"/>
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="4">
-        <v>-0.04</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H28" s="4">
-        <f t="shared" si="10"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="4">
-        <v>-0.09</v>
-      </c>
-      <c r="G29" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="H29" s="4">
-        <f t="shared" si="10"/>
-        <v>-0.19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <f t="shared" si="10"/>
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="4">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="H31" s="4">
-        <f t="shared" si="10"/>
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="4">
-        <v>-0.2</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
-        <f t="shared" si="10"/>
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
-        <f t="shared" si="10"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="4">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="H34" s="4">
-        <f t="shared" si="10"/>
-        <v>-0.13</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="4">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4">
-        <f t="shared" si="10"/>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="4">
-        <v>-0.15</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="H36" s="4">
-        <f t="shared" si="10"/>
-        <v>-9.9999999999999992E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="4">
-        <v>-0.1</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4">
-        <f t="shared" si="10"/>
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="5">
-        <v>-0.2</v>
-      </c>
-      <c r="G38" s="5">
-        <v>0</v>
-      </c>
-      <c r="H38" s="5">
-        <f t="shared" si="10"/>
         <v>-0.2</v>
       </c>
     </row>
@@ -4059,7 +3822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -6677,7 +6440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -9293,7 +9056,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
